--- a/nyttige filer/Umbilical Data and Response for BS Design.xlsx
+++ b/nyttige filer/Umbilical Data and Response for BS Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiekeberg/Desktop/UltraBS/Aker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmoph\Desktop\github\bachelor\nyttige filer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18138557-E759-C94A-AAD8-1C0B6D0B893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C32387-CDB8-4B25-B61B-9C447AF94B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29780" windowHeight="23940" activeTab="6" xr2:uid="{A7FE81DE-3C6B-ED4C-A9CB-84185EA4C50E}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="1" xr2:uid="{A7FE81DE-3C6B-ED4C-A9CB-84185EA4C50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacities" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="210">
   <si>
     <t>AKER SOLUTIONS USA</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>C_max overall</t>
+  </si>
+  <si>
+    <t>4.0  550.0, 18.0  650.0, 23.0  750.0, 23.0  850.0, 16.0  1000.0, 10.0  1050.0,2.0  1100.0</t>
   </si>
 </sst>
 </file>
@@ -922,11 +925,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Dårlig" xfId="3" builtinId="27"/>
+    <cellStyle name="God" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{FC81D6FA-72E9-45D6-9486-6E7D8FE9A9F3}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prosent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -975,7 +978,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1648,7 +1651,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3989,7 +3992,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7602,7 +7605,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10866,9 +10869,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10906,7 +10909,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11012,7 +11015,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11169,21 +11172,21 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" customWidth="1"/>
+    <col min="7" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>195</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>43</v>
       </c>
@@ -11202,7 +11205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -11232,7 +11235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -11265,7 +11268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -11276,7 +11279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>46</v>
       </c>
@@ -11288,7 +11291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
         <v>4</v>
       </c>
@@ -11298,7 +11301,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C18" s="15" t="s">
         <v>5</v>
       </c>
@@ -11310,7 +11313,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C19" s="17" t="s">
         <v>6</v>
       </c>
@@ -11330,7 +11333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -11358,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>3</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>4</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>5</v>
       </c>
@@ -11470,7 +11473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>6</v>
       </c>
@@ -11498,7 +11501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -11526,7 +11529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>8</v>
       </c>
@@ -11554,7 +11557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>9</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>10</v>
       </c>
@@ -11610,7 +11613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>11</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>12</v>
       </c>
@@ -11649,7 +11652,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>13</v>
       </c>
@@ -11664,7 +11667,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>14</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>122.4</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>15</v>
       </c>
@@ -11690,7 +11693,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>28</v>
       </c>
@@ -11698,7 +11701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>27</v>
       </c>
@@ -11712,7 +11715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C39" s="3">
         <f>Response!C7</f>
         <v>550</v>
@@ -11730,7 +11733,7 @@
         <v>9.9396499967970245E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40" s="3">
         <f>Response!C8</f>
         <v>650</v>
@@ -11748,7 +11751,7 @@
         <v>9.8651622120488461E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C41" s="3">
         <f>Response!C9</f>
         <v>750</v>
@@ -11766,7 +11769,7 @@
         <v>9.0688942702894848E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C42" s="3">
         <f>Response!C10</f>
         <v>850</v>
@@ -11784,7 +11787,7 @@
         <v>8.6868036387143077E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <f>Response!C11</f>
         <v>1000</v>
@@ -11802,7 +11805,7 @@
         <v>8.1116488507964907E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C44" s="3">
         <f>Response!C12</f>
         <v>1050</v>
@@ -11820,7 +11823,7 @@
         <v>7.7134647668533868E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C45" s="3">
         <f>Response!C13</f>
         <v>1100</v>
@@ -11838,7 +11841,7 @@
         <v>7.1562835660580013E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F46" s="5"/>
     </row>
   </sheetData>
@@ -11853,18 +11856,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:U128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -11872,7 +11875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -11886,7 +11889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11903,7 +11906,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -11920,7 +11923,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -11971,7 +11974,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -11988,7 +11991,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -12005,19 +12008,19 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -12037,7 +12040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>4.8289999999999997</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>5.1749999999999998</v>
       </c>
@@ -12113,7 +12116,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>5.7629999999999999</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>6.0709999999999997</v>
       </c>
@@ -12189,7 +12192,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>7.2969999999999997</v>
       </c>
@@ -12227,7 +12230,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>8.5960000000000001</v>
       </c>
@@ -12265,7 +12268,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>9.1210000000000004</v>
       </c>
@@ -12303,7 +12306,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>10.525</v>
       </c>
@@ -12341,7 +12344,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>11.67</v>
       </c>
@@ -12379,7 +12382,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>12.49</v>
       </c>
@@ -12417,7 +12420,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>12.976000000000001</v>
       </c>
@@ -12455,7 +12458,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>13.147</v>
       </c>
@@ -12493,7 +12496,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>13.031000000000001</v>
       </c>
@@ -12531,7 +12534,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>12.654</v>
       </c>
@@ -12569,7 +12572,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>12.07</v>
       </c>
@@ -12607,7 +12610,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>11.468</v>
       </c>
@@ -12645,7 +12648,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>10.864000000000001</v>
       </c>
@@ -12683,7 +12686,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>10.111000000000001</v>
       </c>
@@ -12721,7 +12724,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>9.1280000000000001</v>
       </c>
@@ -12759,7 +12762,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>7.944</v>
       </c>
@@ -12797,7 +12800,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>4.0549999999999997</v>
       </c>
@@ -12835,7 +12838,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>2.6110000000000002</v>
       </c>
@@ -12873,7 +12876,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1.375</v>
       </c>
@@ -12911,7 +12914,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>1.1339999999999999</v>
       </c>
@@ -12949,7 +12952,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>0.76700000000000002</v>
       </c>
@@ -12987,7 +12990,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>0.66500000000000004</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>0.63800000000000001</v>
       </c>
@@ -13063,7 +13066,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>0.36199999999999999</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>0.32400000000000001</v>
       </c>
@@ -13139,7 +13142,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>0.31</v>
       </c>
@@ -13177,7 +13180,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>0.312</v>
       </c>
@@ -13215,7 +13218,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>0.33900000000000002</v>
       </c>
@@ -13253,7 +13256,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>0.40300000000000002</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>0.46400000000000002</v>
       </c>
@@ -13329,7 +13332,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>0.59399999999999997</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>0.72499999999999998</v>
       </c>
@@ -13405,7 +13408,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>0.79400000000000004</v>
       </c>
@@ -13443,7 +13446,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>1.002</v>
       </c>
@@ -13481,7 +13484,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>1.1870000000000001</v>
       </c>
@@ -13519,7 +13522,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>1.327</v>
       </c>
@@ -13551,7 +13554,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>1.349</v>
       </c>
@@ -13583,7 +13586,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>1.595</v>
       </c>
@@ -13615,7 +13618,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>4.8289999999999997</v>
       </c>
@@ -13641,7 +13644,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F76">
         <v>8.5630000000000006</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F77">
         <v>8.6050000000000004</v>
       </c>
@@ -13669,7 +13672,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F78">
         <v>9.02</v>
       </c>
@@ -13677,7 +13680,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F79">
         <v>9.7929999999999993</v>
       </c>
@@ -13685,7 +13688,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>196</v>
       </c>
@@ -13717,7 +13720,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>7.1870000000000003</v>
       </c>
@@ -13779,7 +13782,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>13.313000000000001</v>
       </c>
@@ -13841,7 +13844,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>14.425000000000001</v>
       </c>
@@ -13903,7 +13906,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>17.100000000000001</v>
       </c>
@@ -13965,7 +13968,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>18.5</v>
       </c>
@@ -14027,7 +14030,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>19.7</v>
       </c>
@@ -14089,7 +14092,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>20.8</v>
       </c>
@@ -14151,7 +14154,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>21.2</v>
       </c>
@@ -14213,7 +14216,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>22.1</v>
       </c>
@@ -14275,7 +14278,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>22.8</v>
       </c>
@@ -14337,7 +14340,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>23.2</v>
       </c>
@@ -14399,7 +14402,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>23.3</v>
       </c>
@@ -14461,7 +14464,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>23.2</v>
       </c>
@@ -14523,7 +14526,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>23.1</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>23.1</v>
       </c>
@@ -14647,7 +14650,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>23.2</v>
       </c>
@@ -14709,7 +14712,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>22.7</v>
       </c>
@@ -14771,7 +14774,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>22.6</v>
       </c>
@@ -14833,7 +14836,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>22</v>
       </c>
@@ -14895,7 +14898,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>21.3</v>
       </c>
@@ -14957,7 +14960,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>19.399999999999999</v>
       </c>
@@ -15019,7 +15022,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>18.100000000000001</v>
       </c>
@@ -15081,7 +15084,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>17.100000000000001</v>
       </c>
@@ -15143,7 +15146,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>15.6</v>
       </c>
@@ -15205,7 +15208,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>14.1</v>
       </c>
@@ -15267,7 +15270,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>11.3</v>
       </c>
@@ -15329,7 +15332,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>10.1</v>
       </c>
@@ -15391,7 +15394,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>10</v>
       </c>
@@ -15453,7 +15456,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>8.9</v>
       </c>
@@ -15515,7 +15518,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>9.1</v>
       </c>
@@ -15577,7 +15580,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>8</v>
       </c>
@@ -15639,7 +15642,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>7.9</v>
       </c>
@@ -15701,7 +15704,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>7.3</v>
       </c>
@@ -15763,7 +15766,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>7.1</v>
       </c>
@@ -15825,7 +15828,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>6.8</v>
       </c>
@@ -15887,7 +15890,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>6.7</v>
       </c>
@@ -15949,7 +15952,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>6.9</v>
       </c>
@@ -16011,7 +16014,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>6.6</v>
       </c>
@@ -16073,7 +16076,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>7.2</v>
       </c>
@@ -16135,7 +16138,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>6.6</v>
       </c>
@@ -16191,7 +16194,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>6.9</v>
       </c>
@@ -16241,7 +16244,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>6.9</v>
       </c>
@@ -16291,7 +16294,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>7.1870000000000003</v>
       </c>
@@ -16341,7 +16344,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:21" x14ac:dyDescent="0.3">
       <c r="H125">
         <v>16</v>
       </c>
@@ -16379,7 +16382,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:21" x14ac:dyDescent="0.3">
       <c r="N126">
         <v>7.8</v>
       </c>
@@ -16399,7 +16402,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:21" x14ac:dyDescent="0.3">
       <c r="N127">
         <v>8.1</v>
       </c>
@@ -16413,7 +16416,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:21" x14ac:dyDescent="0.3">
       <c r="N128">
         <v>8.8000000000000007</v>
       </c>
@@ -16439,21 +16442,21 @@
   <dimension ref="A4:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="28.19921875" style="19" customWidth="1"/>
     <col min="2" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>47</v>
       </c>
@@ -16485,7 +16488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>53</v>
       </c>
@@ -16512,7 +16515,7 @@
         <v>5.5835667600373479E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>54</v>
       </c>
@@ -16539,7 +16542,7 @@
         <v>5.1167133520074702E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
@@ -16566,7 +16569,7 @@
         <v>4.6473761918560529E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>56</v>
       </c>
@@ -16593,7 +16596,7 @@
         <v>4.1759232428603625E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>57</v>
       </c>
@@ -16620,7 +16623,7 @@
         <v>3.473726655413123E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>58</v>
       </c>
@@ -16647,7 +16650,7 @@
         <v>3.2398016677935543E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>59</v>
       </c>
@@ -16674,12 +16677,12 @@
         <v>3.0050334309969201E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
@@ -16687,7 +16690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>22</v>
       </c>
@@ -16698,7 +16701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
@@ -16709,7 +16712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>23</v>
       </c>
@@ -16720,7 +16723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
@@ -16731,7 +16734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
@@ -16742,7 +16745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>25</v>
       </c>
@@ -16754,12 +16757,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>62</v>
       </c>
@@ -16774,28 +16777,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.296875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="19"/>
     <col min="6" max="6" width="10.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>64</v>
       </c>
@@ -16809,7 +16812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
@@ -16823,8 +16826,8 @@
         <v>4.1759232428603625E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>206</v>
       </c>
@@ -16882,7 +16885,7 @@
         <v>1.6589999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>66</v>
       </c>
@@ -16944,7 +16947,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>67</v>
       </c>
@@ -17007,7 +17010,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>68</v>
       </c>
@@ -17070,7 +17073,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>69</v>
       </c>
@@ -17133,7 +17136,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>70</v>
       </c>
@@ -17196,7 +17199,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>71</v>
       </c>
@@ -17259,7 +17262,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>72</v>
       </c>
@@ -17322,7 +17325,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>73</v>
       </c>
@@ -17385,7 +17388,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>74</v>
       </c>
@@ -17448,7 +17451,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>75</v>
       </c>
@@ -17511,7 +17514,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>76</v>
       </c>
@@ -17574,7 +17577,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>77</v>
       </c>
@@ -17601,7 +17604,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>78</v>
       </c>
@@ -17616,7 +17619,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>79</v>
       </c>
@@ -17631,7 +17634,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>80</v>
       </c>
@@ -17649,7 +17652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>81</v>
       </c>
@@ -17670,7 +17673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>82</v>
       </c>
@@ -17694,7 +17697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>83</v>
       </c>
@@ -17718,7 +17721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>84</v>
       </c>
@@ -17742,7 +17745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>85</v>
       </c>
@@ -17766,7 +17769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>86</v>
       </c>
@@ -17790,7 +17793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>87</v>
       </c>
@@ -17815,7 +17818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>88</v>
       </c>
@@ -17830,7 +17833,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>89</v>
       </c>
@@ -17845,7 +17848,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>90</v>
       </c>
@@ -17860,7 +17863,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>91</v>
       </c>
@@ -17875,7 +17878,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>92</v>
       </c>
@@ -17890,7 +17893,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>93</v>
       </c>
@@ -17905,7 +17908,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>94</v>
       </c>
@@ -17920,7 +17923,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>95</v>
       </c>
@@ -17935,7 +17938,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>96</v>
       </c>
@@ -17950,7 +17953,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>97</v>
       </c>
@@ -17965,7 +17968,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>98</v>
       </c>
@@ -17980,7 +17983,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>99</v>
       </c>
@@ -17995,7 +17998,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>100</v>
       </c>
@@ -18010,7 +18013,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>101</v>
       </c>
@@ -18025,7 +18028,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>102</v>
       </c>
@@ -18040,7 +18043,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>103</v>
       </c>
@@ -18055,7 +18058,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>104</v>
       </c>
@@ -18070,7 +18073,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>105</v>
       </c>
@@ -18085,7 +18088,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>106</v>
       </c>
@@ -18100,7 +18103,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>107</v>
       </c>
@@ -18115,7 +18118,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>108</v>
       </c>
@@ -18130,7 +18133,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>109</v>
       </c>
@@ -18145,7 +18148,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>110</v>
       </c>
@@ -18160,7 +18163,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>111</v>
       </c>
@@ -18175,7 +18178,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>112</v>
       </c>
@@ -18190,7 +18193,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>113</v>
       </c>
@@ -18205,7 +18208,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>114</v>
       </c>
@@ -18220,7 +18223,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>115</v>
       </c>
@@ -18235,7 +18238,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>116</v>
       </c>
@@ -18250,7 +18253,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>117</v>
       </c>
@@ -18265,7 +18268,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>118</v>
       </c>
@@ -18280,7 +18283,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>119</v>
       </c>
@@ -18295,7 +18298,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>120</v>
       </c>
@@ -18310,7 +18313,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>121</v>
       </c>
@@ -18325,7 +18328,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>122</v>
       </c>
@@ -18340,7 +18343,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>123</v>
       </c>
@@ -18355,7 +18358,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>124</v>
       </c>
@@ -18370,7 +18373,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>125</v>
       </c>
@@ -18385,7 +18388,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>53</v>
       </c>
@@ -18400,7 +18403,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>126</v>
       </c>
@@ -18415,7 +18418,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>127</v>
       </c>
@@ -18430,7 +18433,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>128</v>
       </c>
@@ -18445,7 +18448,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>129</v>
       </c>
@@ -18460,7 +18463,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>130</v>
       </c>
@@ -18475,7 +18478,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
         <v>131</v>
       </c>
@@ -18490,7 +18493,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
         <v>132</v>
       </c>
@@ -18505,7 +18508,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>133</v>
       </c>
@@ -18520,7 +18523,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>134</v>
       </c>
@@ -18535,7 +18538,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
         <v>135</v>
       </c>
@@ -18550,7 +18553,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>136</v>
       </c>
@@ -18565,7 +18568,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>137</v>
       </c>
@@ -18580,7 +18583,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>138</v>
       </c>
@@ -18595,7 +18598,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>139</v>
       </c>
@@ -18610,7 +18613,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
         <v>140</v>
       </c>
@@ -18625,7 +18628,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
         <v>141</v>
       </c>
@@ -18640,7 +18643,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
         <v>142</v>
       </c>
@@ -18655,7 +18658,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>143</v>
       </c>
@@ -18670,7 +18673,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>144</v>
       </c>
@@ -18685,7 +18688,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>145</v>
       </c>
@@ -18700,7 +18703,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>146</v>
       </c>
@@ -18715,7 +18718,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
         <v>147</v>
       </c>
@@ -18730,7 +18733,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>148</v>
       </c>
@@ -18745,7 +18748,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
         <v>149</v>
       </c>
@@ -18760,7 +18763,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>150</v>
       </c>
@@ -18775,7 +18778,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>151</v>
       </c>
@@ -18790,7 +18793,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>152</v>
       </c>
@@ -18805,7 +18808,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>153</v>
       </c>
@@ -18820,7 +18823,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>154</v>
       </c>
@@ -18835,7 +18838,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
         <v>155</v>
       </c>
@@ -18850,7 +18853,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>156</v>
       </c>
@@ -18865,7 +18868,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>157</v>
       </c>
@@ -18880,7 +18883,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>158</v>
       </c>
@@ -18895,7 +18898,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>159</v>
       </c>
@@ -18910,7 +18913,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>160</v>
       </c>
@@ -18925,7 +18928,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
         <v>161</v>
       </c>
@@ -18940,7 +18943,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>162</v>
       </c>
@@ -18955,7 +18958,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>163</v>
       </c>
@@ -18970,7 +18973,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>164</v>
       </c>
@@ -18985,7 +18988,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>165</v>
       </c>
@@ -19000,7 +19003,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>166</v>
       </c>
@@ -19015,7 +19018,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>167</v>
       </c>
@@ -19030,7 +19033,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
         <v>168</v>
       </c>
@@ -19045,7 +19048,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
         <v>169</v>
       </c>
@@ -19060,7 +19063,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>170</v>
       </c>
@@ -19075,7 +19078,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
         <v>171</v>
       </c>
@@ -19090,7 +19093,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
         <v>172</v>
       </c>
@@ -19105,7 +19108,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
         <v>173</v>
       </c>
@@ -19120,7 +19123,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
         <v>174</v>
       </c>
@@ -19135,7 +19138,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>175</v>
       </c>
@@ -19150,7 +19153,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>176</v>
       </c>
@@ -19165,7 +19168,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
         <v>177</v>
       </c>
@@ -19180,7 +19183,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>178</v>
       </c>
@@ -19195,7 +19198,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="19" t="s">
         <v>179</v>
       </c>
@@ -19210,7 +19213,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
         <v>180</v>
       </c>
@@ -19225,7 +19228,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="19" t="s">
         <v>181</v>
       </c>
@@ -19240,7 +19243,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
         <v>182</v>
       </c>
@@ -19255,7 +19258,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>183</v>
       </c>
@@ -19270,7 +19273,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
         <v>184</v>
       </c>
@@ -19285,7 +19288,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
         <v>185</v>
       </c>
@@ -19313,7 +19316,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="19"/>
@@ -19321,17 +19324,17 @@
     <col min="12" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>47</v>
       </c>
@@ -19363,7 +19366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>137</v>
       </c>
@@ -19390,7 +19393,7 @@
         <v>5.5835667600373479E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>187</v>
       </c>
@@ -19417,7 +19420,7 @@
         <v>5.1167133520074702E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>188</v>
       </c>
@@ -19444,7 +19447,7 @@
         <v>4.6473761918560529E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>189</v>
       </c>
@@ -19471,7 +19474,7 @@
         <v>4.1759232428603625E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>190</v>
       </c>
@@ -19498,7 +19501,7 @@
         <v>3.473726655413123E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>191</v>
       </c>
@@ -19525,7 +19528,7 @@
         <v>3.2398016677935543E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>192</v>
       </c>
@@ -19567,7 +19570,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="19"/>
@@ -19575,17 +19578,17 @@
     <col min="12" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>47</v>
       </c>
@@ -19617,7 +19620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>137</v>
       </c>
@@ -19644,7 +19647,7 @@
         <v>9.9396499967970245E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>187</v>
       </c>
@@ -19671,7 +19674,7 @@
         <v>9.8651622120488461E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>188</v>
       </c>
@@ -19698,7 +19701,7 @@
         <v>9.0688942702894848E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>189</v>
       </c>
@@ -19725,7 +19728,7 @@
         <v>8.6868036387143077E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>190</v>
       </c>
@@ -19752,7 +19755,7 @@
         <v>8.1116488507964907E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>191</v>
       </c>
@@ -19779,7 +19782,7 @@
         <v>7.7134647668533868E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>192</v>
       </c>
@@ -19814,24 +19817,27 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5BEC33-8FDF-4B67-B2A9-87A3B0BDAF11}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B4:N33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>194</v>
       </c>
@@ -19839,7 +19845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -19850,7 +19856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -19861,7 +19867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -19872,7 +19878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -19883,7 +19889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -19894,7 +19900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -19903,7 +19909,7 @@
         <v>13649</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
@@ -19920,7 +19926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="34">
         <v>1</v>
       </c>
@@ -19945,7 +19951,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="34">
         <v>2</v>
       </c>
@@ -19970,7 +19976,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="34">
         <v>3</v>
       </c>
@@ -19995,7 +20001,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="34">
         <v>4</v>
       </c>
@@ -20020,7 +20026,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="34">
         <v>5</v>
       </c>
@@ -20045,7 +20051,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="34">
         <v>6</v>
       </c>
@@ -20070,7 +20076,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="34">
         <v>7</v>
       </c>
@@ -20095,28 +20101,28 @@
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
         <v>26</v>
       </c>
@@ -20133,7 +20139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="34">
         <v>1</v>
       </c>
@@ -20154,7 +20160,7 @@
         <v>2.69543E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="34">
         <v>2</v>
       </c>
@@ -20175,7 +20181,7 @@
         <v>3.5694700000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="34">
         <v>3</v>
       </c>
@@ -20196,7 +20202,7 @@
         <v>4.4431900000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="34">
         <v>4</v>
       </c>
@@ -20217,7 +20223,7 @@
         <v>4.6843000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="34">
         <v>5</v>
       </c>
@@ -20238,7 +20244,7 @@
         <v>4.6204200000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="34">
         <v>6</v>
       </c>
@@ -20259,7 +20265,7 @@
         <v>3.7475500000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="34">
         <v>7</v>
       </c>
